--- a/Code/Results/Cases/Case_3_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_221/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9968508917563745</v>
+        <v>1.028805385609686</v>
       </c>
       <c r="D2">
-        <v>1.014675226301785</v>
+        <v>1.031653301769922</v>
       </c>
       <c r="E2">
-        <v>1.012180339418302</v>
+        <v>1.038888109898464</v>
       </c>
       <c r="F2">
-        <v>1.019789981523978</v>
+        <v>1.050328011276284</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04159111385556</v>
+        <v>1.032163113437563</v>
       </c>
       <c r="J2">
-        <v>1.019126201817536</v>
+        <v>1.033955666876323</v>
       </c>
       <c r="K2">
-        <v>1.02593382884954</v>
+        <v>1.034460797999788</v>
       </c>
       <c r="L2">
-        <v>1.023472551320713</v>
+        <v>1.041674861946162</v>
       </c>
       <c r="M2">
-        <v>1.030980326964225</v>
+        <v>1.053082594528129</v>
       </c>
       <c r="N2">
-        <v>1.020573477919525</v>
+        <v>1.03542400251966</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001257253379478</v>
+        <v>1.029743598430071</v>
       </c>
       <c r="D3">
-        <v>1.017709101869208</v>
+        <v>1.032314048381167</v>
       </c>
       <c r="E3">
-        <v>1.015959643063219</v>
+        <v>1.03974814552809</v>
       </c>
       <c r="F3">
-        <v>1.024177783094411</v>
+        <v>1.051333861952447</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042525977613967</v>
+        <v>1.032301477082277</v>
       </c>
       <c r="J3">
-        <v>1.021713702979703</v>
+        <v>1.034534701901018</v>
       </c>
       <c r="K3">
-        <v>1.028120296773599</v>
+        <v>1.034930549589488</v>
       </c>
       <c r="L3">
-        <v>1.026392309927038</v>
+        <v>1.042344871527481</v>
       </c>
       <c r="M3">
-        <v>1.034510375688765</v>
+        <v>1.053900370981181</v>
       </c>
       <c r="N3">
-        <v>1.023164653630134</v>
+        <v>1.036003859840506</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004052104449376</v>
+        <v>1.030351198766547</v>
       </c>
       <c r="D4">
-        <v>1.019635601279514</v>
+        <v>1.032741809770449</v>
       </c>
       <c r="E4">
-        <v>1.018362656692944</v>
+        <v>1.04030548807791</v>
       </c>
       <c r="F4">
-        <v>1.026967161351485</v>
+        <v>1.051985715936248</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043108588527703</v>
+        <v>1.032389773096792</v>
       </c>
       <c r="J4">
-        <v>1.023352721893304</v>
+        <v>1.034909283333918</v>
       </c>
       <c r="K4">
-        <v>1.029502680105732</v>
+        <v>1.035234042118263</v>
       </c>
       <c r="L4">
-        <v>1.028244399201466</v>
+        <v>1.042778613177794</v>
       </c>
       <c r="M4">
-        <v>1.036750656506437</v>
+        <v>1.054429915414537</v>
       </c>
       <c r="N4">
-        <v>1.02480600013859</v>
+        <v>1.036378973222006</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005214036038225</v>
+        <v>1.030606755967189</v>
       </c>
       <c r="D5">
-        <v>1.020436988645046</v>
+        <v>1.032921690471237</v>
       </c>
       <c r="E5">
-        <v>1.019363060331643</v>
+        <v>1.040539995117655</v>
       </c>
       <c r="F5">
-        <v>1.028128298262095</v>
+        <v>1.052259993750189</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043348278329494</v>
+        <v>1.03242659665088</v>
       </c>
       <c r="J5">
-        <v>1.024033572808872</v>
+        <v>1.035066734129775</v>
       </c>
       <c r="K5">
-        <v>1.030076281264126</v>
+        <v>1.035361517270764</v>
       </c>
       <c r="L5">
-        <v>1.029014388867566</v>
+        <v>1.042961005122156</v>
       </c>
       <c r="M5">
-        <v>1.037682294503536</v>
+        <v>1.054652627670545</v>
       </c>
       <c r="N5">
-        <v>1.025487817940553</v>
+        <v>1.036536647616054</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005408378951904</v>
+        <v>1.030649672271667</v>
       </c>
       <c r="D6">
-        <v>1.020571053076356</v>
+        <v>1.032951896111122</v>
       </c>
       <c r="E6">
-        <v>1.019530466028246</v>
+        <v>1.040579381584214</v>
       </c>
       <c r="F6">
-        <v>1.028322594422143</v>
+        <v>1.052306060143483</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043388218874727</v>
+        <v>1.032432762108941</v>
       </c>
       <c r="J6">
-        <v>1.024147417313407</v>
+        <v>1.035093169419834</v>
       </c>
       <c r="K6">
-        <v>1.030172154320144</v>
+        <v>1.035382914247281</v>
       </c>
       <c r="L6">
-        <v>1.029143175277491</v>
+        <v>1.042991632254214</v>
       </c>
       <c r="M6">
-        <v>1.037838133284915</v>
+        <v>1.054690027385166</v>
       </c>
       <c r="N6">
-        <v>1.025601824117343</v>
+        <v>1.036563120447256</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004067680806105</v>
+        <v>1.030354613056173</v>
       </c>
       <c r="D7">
-        <v>1.019646342578151</v>
+        <v>1.032744213151278</v>
       </c>
       <c r="E7">
-        <v>1.018376062296026</v>
+        <v>1.04030862078736</v>
       </c>
       <c r="F7">
-        <v>1.026982721246792</v>
+        <v>1.05198937991473</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043111811733048</v>
+        <v>1.032390266299036</v>
       </c>
       <c r="J7">
-        <v>1.023361851324518</v>
+        <v>1.034911387291705</v>
       </c>
       <c r="K7">
-        <v>1.029510374003981</v>
+        <v>1.035235745893212</v>
       </c>
       <c r="L7">
-        <v>1.02825472139096</v>
+        <v>1.042781050124736</v>
       </c>
       <c r="M7">
-        <v>1.036763144653739</v>
+        <v>1.054432890947491</v>
       </c>
       <c r="N7">
-        <v>1.024815142534644</v>
+        <v>1.036381080167654</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9983520015132804</v>
+        <v>1.029122352008613</v>
       </c>
       <c r="D8">
-        <v>1.015708278175786</v>
+        <v>1.031876558965625</v>
       </c>
       <c r="E8">
-        <v>1.01346657118264</v>
+        <v>1.039178587819752</v>
       </c>
       <c r="F8">
-        <v>1.021283428725319</v>
+        <v>1.050667735091902</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041911736915263</v>
+        <v>1.032210129365901</v>
       </c>
       <c r="J8">
-        <v>1.020008116945516</v>
+        <v>1.034151373125691</v>
       </c>
       <c r="K8">
-        <v>1.026679593139324</v>
+        <v>1.034619649066814</v>
       </c>
       <c r="L8">
-        <v>1.024467167341848</v>
+        <v>1.041901252625066</v>
       </c>
       <c r="M8">
-        <v>1.032182618048013</v>
+        <v>1.053358884767013</v>
       </c>
       <c r="N8">
-        <v>1.021456645468144</v>
+        <v>1.03561998669435</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9878263285821809</v>
+        <v>1.026954931163039</v>
       </c>
       <c r="D9">
-        <v>1.008476397143874</v>
+        <v>1.030349345755352</v>
       </c>
       <c r="E9">
-        <v>1.004474261935653</v>
+        <v>1.037193833247526</v>
       </c>
       <c r="F9">
-        <v>1.010839542169701</v>
+        <v>1.048346555567523</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039621395442671</v>
+        <v>1.031883274239034</v>
       </c>
       <c r="J9">
-        <v>1.013816417797076</v>
+        <v>1.032811462761969</v>
       </c>
       <c r="K9">
-        <v>1.021433431556519</v>
+        <v>1.033530467551344</v>
       </c>
       <c r="L9">
-        <v>1.017495162075022</v>
+        <v>1.040352521499563</v>
       </c>
       <c r="M9">
-        <v>1.023759169719121</v>
+        <v>1.051469376417369</v>
       </c>
       <c r="N9">
-        <v>1.015256153396716</v>
+        <v>1.034278173504221</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9804709241685939</v>
+        <v>1.025512719260002</v>
       </c>
       <c r="D10">
-        <v>1.003440652294615</v>
+        <v>1.029332435645617</v>
       </c>
       <c r="E10">
-        <v>0.9982262340805268</v>
+        <v>1.035875118301473</v>
       </c>
       <c r="F10">
-        <v>1.003578556667342</v>
+        <v>1.046804375992544</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03796925464645</v>
+        <v>1.031659062305579</v>
       </c>
       <c r="J10">
-        <v>1.009481381056578</v>
+        <v>1.031917797979289</v>
       </c>
       <c r="K10">
-        <v>1.017748061343396</v>
+        <v>1.032802027020297</v>
       </c>
       <c r="L10">
-        <v>1.012627588442045</v>
+        <v>1.039321163122796</v>
       </c>
       <c r="M10">
-        <v>1.017883498377197</v>
+        <v>1.050211810807077</v>
       </c>
       <c r="N10">
-        <v>1.010914960406811</v>
+        <v>1.033383239615045</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9771977107342488</v>
+        <v>1.024888886419812</v>
       </c>
       <c r="D11">
-        <v>1.001204957369414</v>
+        <v>1.028892412600554</v>
       </c>
       <c r="E11">
-        <v>0.9954550015130331</v>
+        <v>1.03530517327363</v>
       </c>
       <c r="F11">
-        <v>1.000356763859334</v>
+        <v>1.046137862125808</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037222423828562</v>
+        <v>1.031560486478385</v>
       </c>
       <c r="J11">
-        <v>1.007550851086149</v>
+        <v>1.03153075052553</v>
       </c>
       <c r="K11">
-        <v>1.016104185678922</v>
+        <v>1.03248606671563</v>
       </c>
       <c r="L11">
-        <v>1.010463141872061</v>
+        <v>1.03887485458</v>
       </c>
       <c r="M11">
-        <v>1.015271955271305</v>
+        <v>1.049667785373072</v>
       </c>
       <c r="N11">
-        <v>1.008981688862389</v>
+        <v>1.032995642509507</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9759678952243349</v>
+        <v>1.024657266369088</v>
       </c>
       <c r="D12">
-        <v>1.000365837406629</v>
+        <v>1.0287290158231</v>
       </c>
       <c r="E12">
-        <v>0.9944152332277817</v>
+        <v>1.035093631962234</v>
       </c>
       <c r="F12">
-        <v>0.9991477321651735</v>
+        <v>1.045890479776449</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036940134627468</v>
+        <v>1.031523647598783</v>
       </c>
       <c r="J12">
-        <v>1.006825348205427</v>
+        <v>1.031386972083947</v>
       </c>
       <c r="K12">
-        <v>1.015486031903865</v>
+        <v>1.032368624742203</v>
       </c>
       <c r="L12">
-        <v>1.00965021644326</v>
+        <v>1.038709118285742</v>
       </c>
       <c r="M12">
-        <v>1.014291278516704</v>
+        <v>1.049465787692746</v>
       </c>
       <c r="N12">
-        <v>1.008255155684361</v>
+        <v>1.032851659886046</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.976232340660605</v>
+        <v>1.024706945150453</v>
       </c>
       <c r="D13">
-        <v>1.000546231011483</v>
+        <v>1.028764062819692</v>
       </c>
       <c r="E13">
-        <v>0.9946387468871958</v>
+        <v>1.035139000955678</v>
       </c>
       <c r="F13">
-        <v>0.9994076414847641</v>
+        <v>1.045943535485751</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037000910257225</v>
+        <v>1.031531559765837</v>
       </c>
       <c r="J13">
-        <v>1.006981358538428</v>
+        <v>1.031417813565845</v>
       </c>
       <c r="K13">
-        <v>1.015618974809352</v>
+        <v>1.032393820059622</v>
       </c>
       <c r="L13">
-        <v>1.009825004044394</v>
+        <v>1.038744667340377</v>
       </c>
       <c r="M13">
-        <v>1.014502126864801</v>
+        <v>1.049509113351316</v>
       </c>
       <c r="N13">
-        <v>1.00841138756993</v>
+        <v>1.032882545166386</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9770963437984407</v>
+        <v>1.024869738604304</v>
       </c>
       <c r="D14">
-        <v>1.0011357749489</v>
+        <v>1.028878905197236</v>
       </c>
       <c r="E14">
-        <v>0.9953692694381282</v>
+        <v>1.03528768389769</v>
       </c>
       <c r="F14">
-        <v>1.000257079954175</v>
+        <v>1.046117409528582</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037199190284185</v>
+        <v>1.031557445919993</v>
       </c>
       <c r="J14">
-        <v>1.007491054871129</v>
+        <v>1.031518865989633</v>
       </c>
       <c r="K14">
-        <v>1.016053244744823</v>
+        <v>1.032476360556764</v>
       </c>
       <c r="L14">
-        <v>1.010396130421944</v>
+        <v>1.03886115389178</v>
       </c>
       <c r="M14">
-        <v>1.015191112250424</v>
+        <v>1.049651086592352</v>
       </c>
       <c r="N14">
-        <v>1.008921807729885</v>
+        <v>1.032983741096206</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9776268068580868</v>
+        <v>1.024970054202303</v>
       </c>
       <c r="D15">
-        <v>1.001497849628406</v>
+        <v>1.02894966969678</v>
       </c>
       <c r="E15">
-        <v>0.9958179729211608</v>
+        <v>1.035379313824567</v>
       </c>
       <c r="F15">
-        <v>1.000778795542653</v>
+        <v>1.046224564356224</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037320705171421</v>
+        <v>1.031573365642918</v>
       </c>
       <c r="J15">
-        <v>1.007803967990849</v>
+        <v>1.031581126189792</v>
       </c>
       <c r="K15">
-        <v>1.016319803020287</v>
+        <v>1.032527205877285</v>
       </c>
       <c r="L15">
-        <v>1.010746820546418</v>
+        <v>1.038932930772723</v>
       </c>
       <c r="M15">
-        <v>1.015614193832149</v>
+        <v>1.049738571307584</v>
       </c>
       <c r="N15">
-        <v>1.009235165222127</v>
+        <v>1.03304608971299</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9806862350432415</v>
+        <v>1.025554134857704</v>
       </c>
       <c r="D16">
-        <v>1.00358783240901</v>
+        <v>1.029361645090474</v>
       </c>
       <c r="E16">
-        <v>0.9984087214703339</v>
+        <v>1.035912966273095</v>
       </c>
       <c r="F16">
-        <v>1.003790685332218</v>
+        <v>1.046848636978948</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0380181435496</v>
+        <v>1.031665573097654</v>
       </c>
       <c r="J16">
-        <v>1.009608345493779</v>
+        <v>1.031943483339822</v>
       </c>
       <c r="K16">
-        <v>1.017856119943491</v>
+        <v>1.03282298495696</v>
       </c>
       <c r="L16">
-        <v>1.01277000408099</v>
+        <v>1.039350789063781</v>
       </c>
       <c r="M16">
-        <v>1.018055355832515</v>
+        <v>1.0502479268009</v>
       </c>
       <c r="N16">
-        <v>1.011042105148076</v>
+        <v>1.033408961451737</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9825811959897061</v>
+        <v>1.02592068908032</v>
       </c>
       <c r="D17">
-        <v>1.004883779807684</v>
+        <v>1.029620149243335</v>
       </c>
       <c r="E17">
-        <v>1.00001585497621</v>
+        <v>1.036247999009611</v>
       </c>
       <c r="F17">
-        <v>1.005658716164976</v>
+        <v>1.047240439495974</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038447101099038</v>
+        <v>1.03172301369008</v>
       </c>
       <c r="J17">
-        <v>1.010725611240461</v>
+        <v>1.032170758393309</v>
       </c>
       <c r="K17">
-        <v>1.018806717130468</v>
+        <v>1.033008375286796</v>
       </c>
       <c r="L17">
-        <v>1.014023606203054</v>
+        <v>1.039612975273621</v>
       </c>
       <c r="M17">
-        <v>1.019568249762276</v>
+        <v>1.050567569069851</v>
       </c>
       <c r="N17">
-        <v>1.012160957540271</v>
+        <v>1.033636559261868</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9836780297393773</v>
+        <v>1.026134557037804</v>
       </c>
       <c r="D18">
-        <v>1.005634387350797</v>
+        <v>1.029770959745524</v>
       </c>
       <c r="E18">
-        <v>1.000946957639874</v>
+        <v>1.036443520822562</v>
       </c>
       <c r="F18">
-        <v>1.006740851397173</v>
+        <v>1.047469092768354</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038694282288496</v>
+        <v>1.031756373961848</v>
       </c>
       <c r="J18">
-        <v>1.011372165928932</v>
+        <v>1.032303315850714</v>
       </c>
       <c r="K18">
-        <v>1.019356567549278</v>
+        <v>1.033116458088709</v>
       </c>
       <c r="L18">
-        <v>1.014749365357019</v>
+        <v>1.03976593065674</v>
       </c>
       <c r="M18">
-        <v>1.020444234637885</v>
+        <v>1.050754060009369</v>
       </c>
       <c r="N18">
-        <v>1.01280843041056</v>
+        <v>1.033769304966067</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9840506074334391</v>
+        <v>1.026207491156141</v>
       </c>
       <c r="D19">
-        <v>1.005889438227397</v>
+        <v>1.029822387172989</v>
       </c>
       <c r="E19">
-        <v>1.001263384467721</v>
+        <v>1.036510206119549</v>
       </c>
       <c r="F19">
-        <v>1.007108585559821</v>
+        <v>1.047547078194139</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03877805667412</v>
+        <v>1.031767724536649</v>
       </c>
       <c r="J19">
-        <v>1.011591766093216</v>
+        <v>1.032348513092468</v>
       </c>
       <c r="K19">
-        <v>1.019543278630307</v>
+        <v>1.033153302639874</v>
       </c>
       <c r="L19">
-        <v>1.014995919278405</v>
+        <v>1.039818088970382</v>
       </c>
       <c r="M19">
-        <v>1.020741842149125</v>
+        <v>1.050817656878687</v>
       </c>
       <c r="N19">
-        <v>1.013028342432266</v>
+        <v>1.033814566393089</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9823787653367586</v>
+        <v>1.02588135474981</v>
       </c>
       <c r="D20">
-        <v>1.004745287529814</v>
+        <v>1.029592411142457</v>
       </c>
       <c r="E20">
-        <v>0.9998440812280793</v>
+        <v>1.036212042516255</v>
       </c>
       <c r="F20">
-        <v>1.005459069754199</v>
+        <v>1.047198390218115</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038401391759565</v>
+        <v>1.031716865733896</v>
       </c>
       <c r="J20">
-        <v>1.010606272303691</v>
+        <v>1.032146374776054</v>
       </c>
       <c r="K20">
-        <v>1.01870520684032</v>
+        <v>1.032988490055258</v>
       </c>
       <c r="L20">
-        <v>1.013889672833696</v>
+        <v>1.039584842415443</v>
       </c>
       <c r="M20">
-        <v>1.019406602431407</v>
+        <v>1.050533269401582</v>
       </c>
       <c r="N20">
-        <v>1.012041449128522</v>
+        <v>1.033612141017081</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.976842308999243</v>
+        <v>1.024821797242667</v>
       </c>
       <c r="D21">
-        <v>1.000962411937071</v>
+        <v>1.028845085660133</v>
       </c>
       <c r="E21">
-        <v>0.9951544404810782</v>
+        <v>1.035243896004292</v>
       </c>
       <c r="F21">
-        <v>1.00000728674792</v>
+        <v>1.046066202685609</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037140937884012</v>
+        <v>1.031549829256366</v>
       </c>
       <c r="J21">
-        <v>1.007341197656864</v>
+        <v>1.031489108887216</v>
       </c>
       <c r="K21">
-        <v>1.015925574040565</v>
+        <v>1.032452056644889</v>
       </c>
       <c r="L21">
-        <v>1.01022819867324</v>
+        <v>1.038826850322244</v>
       </c>
       <c r="M21">
-        <v>1.014988521081161</v>
+        <v>1.049609276860373</v>
       </c>
       <c r="N21">
-        <v>1.008771737701187</v>
+        <v>1.03295394173529</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9732799266653582</v>
+        <v>1.024156186029383</v>
       </c>
       <c r="D22">
-        <v>0.9985335154217335</v>
+        <v>1.028375487267586</v>
       </c>
       <c r="E22">
-        <v>0.992145367904818</v>
+        <v>1.034636119764337</v>
       </c>
       <c r="F22">
-        <v>0.9965079410684698</v>
+        <v>1.04535545469847</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036320102295507</v>
+        <v>1.03144351436174</v>
       </c>
       <c r="J22">
-        <v>1.005239397961515</v>
+        <v>1.031075792024981</v>
       </c>
       <c r="K22">
-        <v>1.01413407974389</v>
+        <v>1.032114315869521</v>
       </c>
       <c r="L22">
-        <v>1.007874049166705</v>
+        <v>1.038350517423145</v>
       </c>
       <c r="M22">
-        <v>1.01214889520129</v>
+        <v>1.049028775552125</v>
       </c>
       <c r="N22">
-        <v>1.00666695320919</v>
+        <v>1.032540037915703</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9751763874040741</v>
+        <v>1.024508984348575</v>
       </c>
       <c r="D23">
-        <v>0.9998260396188329</v>
+        <v>1.028624403732757</v>
       </c>
       <c r="E23">
-        <v>0.9937464540213052</v>
+        <v>1.034958224299585</v>
       </c>
       <c r="F23">
-        <v>0.9983700199743117</v>
+        <v>1.04573213065496</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036757984877217</v>
+        <v>1.031499996234349</v>
       </c>
       <c r="J23">
-        <v>1.006358376088732</v>
+        <v>1.031294905217198</v>
       </c>
       <c r="K23">
-        <v>1.015088052066245</v>
+        <v>1.032293402275992</v>
       </c>
       <c r="L23">
-        <v>1.009127110819554</v>
+        <v>1.038603006763181</v>
       </c>
       <c r="M23">
-        <v>1.013660274418902</v>
+        <v>1.049336467288901</v>
       </c>
       <c r="N23">
-        <v>1.007787520413697</v>
+        <v>1.032759462273785</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9824702611407807</v>
+        <v>1.025899128045785</v>
       </c>
       <c r="D24">
-        <v>1.004807882568858</v>
+        <v>1.029604944705578</v>
       </c>
       <c r="E24">
-        <v>0.9999217178563499</v>
+        <v>1.036228289390102</v>
       </c>
       <c r="F24">
-        <v>1.005549304367459</v>
+        <v>1.047217390101504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038422055171352</v>
+        <v>1.031719644175193</v>
       </c>
       <c r="J24">
-        <v>1.010660212249567</v>
+        <v>1.032157392708643</v>
       </c>
       <c r="K24">
-        <v>1.018751089215167</v>
+        <v>1.032997475496952</v>
       </c>
       <c r="L24">
-        <v>1.013950208356327</v>
+        <v>1.039597554360985</v>
       </c>
       <c r="M24">
-        <v>1.019479663829856</v>
+        <v>1.05054876779392</v>
       </c>
       <c r="N24">
-        <v>1.012095465675308</v>
+        <v>1.033623174596397</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9906045371076155</v>
+        <v>1.027514783622716</v>
       </c>
       <c r="D25">
-        <v>1.010382444597897</v>
+        <v>1.030743956123078</v>
       </c>
       <c r="E25">
-        <v>1.00684177806055</v>
+        <v>1.037706160499744</v>
       </c>
       <c r="F25">
-        <v>1.01358991354259</v>
+        <v>1.048945712348041</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04023502732449</v>
+        <v>1.031968888408209</v>
       </c>
       <c r="J25">
-        <v>1.015452286596422</v>
+        <v>1.033157934920375</v>
       </c>
       <c r="K25">
-        <v>1.022821696469842</v>
+        <v>1.033812460356403</v>
       </c>
       <c r="L25">
-        <v>1.01933480462196</v>
+        <v>1.040752711287918</v>
       </c>
       <c r="M25">
-        <v>1.025980864020425</v>
+        <v>1.051957493512593</v>
       </c>
       <c r="N25">
-        <v>1.016894345317394</v>
+        <v>1.034625137692833</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_221/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028805385609686</v>
+        <v>0.996850891756374</v>
       </c>
       <c r="D2">
-        <v>1.031653301769922</v>
+        <v>1.014675226301784</v>
       </c>
       <c r="E2">
-        <v>1.038888109898464</v>
+        <v>1.012180339418301</v>
       </c>
       <c r="F2">
-        <v>1.050328011276284</v>
+        <v>1.019789981523977</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032163113437563</v>
+        <v>1.04159111385556</v>
       </c>
       <c r="J2">
-        <v>1.033955666876323</v>
+        <v>1.019126201817536</v>
       </c>
       <c r="K2">
-        <v>1.034460797999788</v>
+        <v>1.02593382884954</v>
       </c>
       <c r="L2">
-        <v>1.041674861946162</v>
+        <v>1.023472551320712</v>
       </c>
       <c r="M2">
-        <v>1.053082594528129</v>
+        <v>1.030980326964224</v>
       </c>
       <c r="N2">
-        <v>1.03542400251966</v>
+        <v>1.020573477919524</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029743598430071</v>
+        <v>1.001257253379478</v>
       </c>
       <c r="D3">
-        <v>1.032314048381167</v>
+        <v>1.017709101869208</v>
       </c>
       <c r="E3">
-        <v>1.03974814552809</v>
+        <v>1.015959643063218</v>
       </c>
       <c r="F3">
-        <v>1.051333861952447</v>
+        <v>1.02417778309441</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032301477082277</v>
+        <v>1.042525977613967</v>
       </c>
       <c r="J3">
-        <v>1.034534701901018</v>
+        <v>1.021713702979703</v>
       </c>
       <c r="K3">
-        <v>1.034930549589488</v>
+        <v>1.028120296773599</v>
       </c>
       <c r="L3">
-        <v>1.042344871527481</v>
+        <v>1.026392309927038</v>
       </c>
       <c r="M3">
-        <v>1.053900370981181</v>
+        <v>1.034510375688765</v>
       </c>
       <c r="N3">
-        <v>1.036003859840506</v>
+        <v>1.023164653630134</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030351198766547</v>
+        <v>1.004052104449376</v>
       </c>
       <c r="D4">
-        <v>1.032741809770449</v>
+        <v>1.019635601279514</v>
       </c>
       <c r="E4">
-        <v>1.04030548807791</v>
+        <v>1.018362656692944</v>
       </c>
       <c r="F4">
-        <v>1.051985715936248</v>
+        <v>1.026967161351485</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032389773096792</v>
+        <v>1.043108588527703</v>
       </c>
       <c r="J4">
-        <v>1.034909283333918</v>
+        <v>1.023352721893304</v>
       </c>
       <c r="K4">
-        <v>1.035234042118263</v>
+        <v>1.029502680105732</v>
       </c>
       <c r="L4">
-        <v>1.042778613177794</v>
+        <v>1.028244399201466</v>
       </c>
       <c r="M4">
-        <v>1.054429915414537</v>
+        <v>1.036750656506437</v>
       </c>
       <c r="N4">
-        <v>1.036378973222006</v>
+        <v>1.024806000138591</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030606755967189</v>
+        <v>1.005214036038225</v>
       </c>
       <c r="D5">
-        <v>1.032921690471237</v>
+        <v>1.020436988645046</v>
       </c>
       <c r="E5">
-        <v>1.040539995117655</v>
+        <v>1.019363060331644</v>
       </c>
       <c r="F5">
-        <v>1.052259993750189</v>
+        <v>1.028128298262095</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03242659665088</v>
+        <v>1.043348278329494</v>
       </c>
       <c r="J5">
-        <v>1.035066734129775</v>
+        <v>1.024033572808872</v>
       </c>
       <c r="K5">
-        <v>1.035361517270764</v>
+        <v>1.030076281264126</v>
       </c>
       <c r="L5">
-        <v>1.042961005122156</v>
+        <v>1.029014388867566</v>
       </c>
       <c r="M5">
-        <v>1.054652627670545</v>
+        <v>1.037682294503536</v>
       </c>
       <c r="N5">
-        <v>1.036536647616054</v>
+        <v>1.025487817940553</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030649672271667</v>
+        <v>1.005408378951904</v>
       </c>
       <c r="D6">
-        <v>1.032951896111122</v>
+        <v>1.020571053076355</v>
       </c>
       <c r="E6">
-        <v>1.040579381584214</v>
+        <v>1.019530466028245</v>
       </c>
       <c r="F6">
-        <v>1.052306060143483</v>
+        <v>1.028322594422142</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032432762108941</v>
+        <v>1.043388218874727</v>
       </c>
       <c r="J6">
-        <v>1.035093169419834</v>
+        <v>1.024147417313407</v>
       </c>
       <c r="K6">
-        <v>1.035382914247281</v>
+        <v>1.030172154320143</v>
       </c>
       <c r="L6">
-        <v>1.042991632254214</v>
+        <v>1.02914317527749</v>
       </c>
       <c r="M6">
-        <v>1.054690027385166</v>
+        <v>1.037838133284915</v>
       </c>
       <c r="N6">
-        <v>1.036563120447256</v>
+        <v>1.025601824117343</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030354613056173</v>
+        <v>1.004067680806105</v>
       </c>
       <c r="D7">
-        <v>1.032744213151278</v>
+        <v>1.019646342578151</v>
       </c>
       <c r="E7">
-        <v>1.04030862078736</v>
+        <v>1.018376062296026</v>
       </c>
       <c r="F7">
-        <v>1.05198937991473</v>
+        <v>1.026982721246792</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032390266299036</v>
+        <v>1.043111811733048</v>
       </c>
       <c r="J7">
-        <v>1.034911387291705</v>
+        <v>1.023361851324518</v>
       </c>
       <c r="K7">
-        <v>1.035235745893212</v>
+        <v>1.029510374003981</v>
       </c>
       <c r="L7">
-        <v>1.042781050124736</v>
+        <v>1.02825472139096</v>
       </c>
       <c r="M7">
-        <v>1.054432890947491</v>
+        <v>1.036763144653739</v>
       </c>
       <c r="N7">
-        <v>1.036381080167654</v>
+        <v>1.024815142534644</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029122352008613</v>
+        <v>0.9983520015132807</v>
       </c>
       <c r="D8">
-        <v>1.031876558965625</v>
+        <v>1.015708278175787</v>
       </c>
       <c r="E8">
-        <v>1.039178587819752</v>
+        <v>1.01346657118264</v>
       </c>
       <c r="F8">
-        <v>1.050667735091902</v>
+        <v>1.021283428725319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032210129365901</v>
+        <v>1.041911736915263</v>
       </c>
       <c r="J8">
-        <v>1.034151373125691</v>
+        <v>1.020008116945516</v>
       </c>
       <c r="K8">
-        <v>1.034619649066814</v>
+        <v>1.026679593139324</v>
       </c>
       <c r="L8">
-        <v>1.041901252625066</v>
+        <v>1.024467167341849</v>
       </c>
       <c r="M8">
-        <v>1.053358884767013</v>
+        <v>1.032182618048013</v>
       </c>
       <c r="N8">
-        <v>1.03561998669435</v>
+        <v>1.021456645468145</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026954931163039</v>
+        <v>0.9878263285821804</v>
       </c>
       <c r="D9">
-        <v>1.030349345755352</v>
+        <v>1.008476397143874</v>
       </c>
       <c r="E9">
-        <v>1.037193833247526</v>
+        <v>1.004474261935653</v>
       </c>
       <c r="F9">
-        <v>1.048346555567523</v>
+        <v>1.010839542169701</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031883274239034</v>
+        <v>1.039621395442671</v>
       </c>
       <c r="J9">
-        <v>1.032811462761969</v>
+        <v>1.013816417797076</v>
       </c>
       <c r="K9">
-        <v>1.033530467551344</v>
+        <v>1.021433431556519</v>
       </c>
       <c r="L9">
-        <v>1.040352521499563</v>
+        <v>1.017495162075022</v>
       </c>
       <c r="M9">
-        <v>1.051469376417369</v>
+        <v>1.02375916971912</v>
       </c>
       <c r="N9">
-        <v>1.034278173504221</v>
+        <v>1.015256153396716</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025512719260002</v>
+        <v>0.9804709241685938</v>
       </c>
       <c r="D10">
-        <v>1.029332435645617</v>
+        <v>1.003440652294615</v>
       </c>
       <c r="E10">
-        <v>1.035875118301473</v>
+        <v>0.9982262340805266</v>
       </c>
       <c r="F10">
-        <v>1.046804375992544</v>
+        <v>1.003578556667342</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031659062305579</v>
+        <v>1.03796925464645</v>
       </c>
       <c r="J10">
-        <v>1.031917797979289</v>
+        <v>1.009481381056578</v>
       </c>
       <c r="K10">
-        <v>1.032802027020297</v>
+        <v>1.017748061343396</v>
       </c>
       <c r="L10">
-        <v>1.039321163122796</v>
+        <v>1.012627588442045</v>
       </c>
       <c r="M10">
-        <v>1.050211810807077</v>
+        <v>1.017883498377197</v>
       </c>
       <c r="N10">
-        <v>1.033383239615045</v>
+        <v>1.010914960406811</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024888886419812</v>
+        <v>0.97719771073425</v>
       </c>
       <c r="D11">
-        <v>1.028892412600554</v>
+        <v>1.001204957369415</v>
       </c>
       <c r="E11">
-        <v>1.03530517327363</v>
+        <v>0.9954550015130341</v>
       </c>
       <c r="F11">
-        <v>1.046137862125808</v>
+        <v>1.000356763859335</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031560486478385</v>
+        <v>1.037222423828562</v>
       </c>
       <c r="J11">
-        <v>1.03153075052553</v>
+        <v>1.00755085108615</v>
       </c>
       <c r="K11">
-        <v>1.03248606671563</v>
+        <v>1.016104185678923</v>
       </c>
       <c r="L11">
-        <v>1.03887485458</v>
+        <v>1.010463141872062</v>
       </c>
       <c r="M11">
-        <v>1.049667785373072</v>
+        <v>1.015271955271305</v>
       </c>
       <c r="N11">
-        <v>1.032995642509507</v>
+        <v>1.00898168886239</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024657266369088</v>
+        <v>0.975967895224334</v>
       </c>
       <c r="D12">
-        <v>1.0287290158231</v>
+        <v>1.000365837406628</v>
       </c>
       <c r="E12">
-        <v>1.035093631962234</v>
+        <v>0.9944152332277808</v>
       </c>
       <c r="F12">
-        <v>1.045890479776449</v>
+        <v>0.9991477321651724</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031523647598783</v>
+        <v>1.036940134627467</v>
       </c>
       <c r="J12">
-        <v>1.031386972083947</v>
+        <v>1.006825348205426</v>
       </c>
       <c r="K12">
-        <v>1.032368624742203</v>
+        <v>1.015486031903864</v>
       </c>
       <c r="L12">
-        <v>1.038709118285742</v>
+        <v>1.009650216443259</v>
       </c>
       <c r="M12">
-        <v>1.049465787692746</v>
+        <v>1.014291278516703</v>
       </c>
       <c r="N12">
-        <v>1.032851659886046</v>
+        <v>1.00825515568436</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024706945150453</v>
+        <v>0.9762323406606058</v>
       </c>
       <c r="D13">
-        <v>1.028764062819692</v>
+        <v>1.000546231011483</v>
       </c>
       <c r="E13">
-        <v>1.035139000955678</v>
+        <v>0.9946387468871962</v>
       </c>
       <c r="F13">
-        <v>1.045943535485751</v>
+        <v>0.999407641484765</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031531559765837</v>
+        <v>1.037000910257226</v>
       </c>
       <c r="J13">
-        <v>1.031417813565845</v>
+        <v>1.006981358538429</v>
       </c>
       <c r="K13">
-        <v>1.032393820059622</v>
+        <v>1.015618974809352</v>
       </c>
       <c r="L13">
-        <v>1.038744667340377</v>
+        <v>1.009825004044395</v>
       </c>
       <c r="M13">
-        <v>1.049509113351316</v>
+        <v>1.014502126864802</v>
       </c>
       <c r="N13">
-        <v>1.032882545166386</v>
+        <v>1.00841138756993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024869738604304</v>
+        <v>0.9770963437984402</v>
       </c>
       <c r="D14">
-        <v>1.028878905197236</v>
+        <v>1.001135774948899</v>
       </c>
       <c r="E14">
-        <v>1.03528768389769</v>
+        <v>0.9953692694381276</v>
       </c>
       <c r="F14">
-        <v>1.046117409528582</v>
+        <v>1.000257079954175</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031557445919993</v>
+        <v>1.037199190284185</v>
       </c>
       <c r="J14">
-        <v>1.031518865989633</v>
+        <v>1.007491054871129</v>
       </c>
       <c r="K14">
-        <v>1.032476360556764</v>
+        <v>1.016053244744823</v>
       </c>
       <c r="L14">
-        <v>1.03886115389178</v>
+        <v>1.010396130421943</v>
       </c>
       <c r="M14">
-        <v>1.049651086592352</v>
+        <v>1.015191112250424</v>
       </c>
       <c r="N14">
-        <v>1.032983741096206</v>
+        <v>1.008921807729885</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024970054202303</v>
+        <v>0.9776268068580855</v>
       </c>
       <c r="D15">
-        <v>1.02894966969678</v>
+        <v>1.001497849628405</v>
       </c>
       <c r="E15">
-        <v>1.035379313824567</v>
+        <v>0.9958179729211594</v>
       </c>
       <c r="F15">
-        <v>1.046224564356224</v>
+        <v>1.000778795542651</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031573365642918</v>
+        <v>1.037320705171421</v>
       </c>
       <c r="J15">
-        <v>1.031581126189792</v>
+        <v>1.007803967990848</v>
       </c>
       <c r="K15">
-        <v>1.032527205877285</v>
+        <v>1.016319803020287</v>
       </c>
       <c r="L15">
-        <v>1.038932930772723</v>
+        <v>1.010746820546417</v>
       </c>
       <c r="M15">
-        <v>1.049738571307584</v>
+        <v>1.015614193832148</v>
       </c>
       <c r="N15">
-        <v>1.03304608971299</v>
+        <v>1.009235165222126</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025554134857704</v>
+        <v>0.9806862350432414</v>
       </c>
       <c r="D16">
-        <v>1.029361645090474</v>
+        <v>1.003587832409009</v>
       </c>
       <c r="E16">
-        <v>1.035912966273095</v>
+        <v>0.9984087214703338</v>
       </c>
       <c r="F16">
-        <v>1.046848636978948</v>
+        <v>1.003790685332218</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031665573097654</v>
+        <v>1.0380181435496</v>
       </c>
       <c r="J16">
-        <v>1.031943483339822</v>
+        <v>1.009608345493779</v>
       </c>
       <c r="K16">
-        <v>1.03282298495696</v>
+        <v>1.017856119943491</v>
       </c>
       <c r="L16">
-        <v>1.039350789063781</v>
+        <v>1.01277000408099</v>
       </c>
       <c r="M16">
-        <v>1.0502479268009</v>
+        <v>1.018055355832514</v>
       </c>
       <c r="N16">
-        <v>1.033408961451737</v>
+        <v>1.011042105148076</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02592068908032</v>
+        <v>0.9825811959897051</v>
       </c>
       <c r="D17">
-        <v>1.029620149243335</v>
+        <v>1.004883779807683</v>
       </c>
       <c r="E17">
-        <v>1.036247999009611</v>
+        <v>1.000015854976209</v>
       </c>
       <c r="F17">
-        <v>1.047240439495974</v>
+        <v>1.005658716164975</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03172301369008</v>
+        <v>1.038447101099037</v>
       </c>
       <c r="J17">
-        <v>1.032170758393309</v>
+        <v>1.01072561124046</v>
       </c>
       <c r="K17">
-        <v>1.033008375286796</v>
+        <v>1.018806717130467</v>
       </c>
       <c r="L17">
-        <v>1.039612975273621</v>
+        <v>1.014023606203053</v>
       </c>
       <c r="M17">
-        <v>1.050567569069851</v>
+        <v>1.019568249762275</v>
       </c>
       <c r="N17">
-        <v>1.033636559261868</v>
+        <v>1.01216095754027</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026134557037804</v>
+        <v>0.9836780297393766</v>
       </c>
       <c r="D18">
-        <v>1.029770959745524</v>
+        <v>1.005634387350796</v>
       </c>
       <c r="E18">
-        <v>1.036443520822562</v>
+        <v>1.000946957639874</v>
       </c>
       <c r="F18">
-        <v>1.047469092768354</v>
+        <v>1.006740851397173</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031756373961848</v>
+        <v>1.038694282288496</v>
       </c>
       <c r="J18">
-        <v>1.032303315850714</v>
+        <v>1.011372165928932</v>
       </c>
       <c r="K18">
-        <v>1.033116458088709</v>
+        <v>1.019356567549278</v>
       </c>
       <c r="L18">
-        <v>1.03976593065674</v>
+        <v>1.014749365357018</v>
       </c>
       <c r="M18">
-        <v>1.050754060009369</v>
+        <v>1.020444234637885</v>
       </c>
       <c r="N18">
-        <v>1.033769304966067</v>
+        <v>1.01280843041056</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026207491156141</v>
+        <v>0.9840506074334383</v>
       </c>
       <c r="D19">
-        <v>1.029822387172989</v>
+        <v>1.005889438227397</v>
       </c>
       <c r="E19">
-        <v>1.036510206119549</v>
+        <v>1.00126338446772</v>
       </c>
       <c r="F19">
-        <v>1.047547078194139</v>
+        <v>1.00710858555982</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031767724536649</v>
+        <v>1.03877805667412</v>
       </c>
       <c r="J19">
-        <v>1.032348513092468</v>
+        <v>1.011591766093215</v>
       </c>
       <c r="K19">
-        <v>1.033153302639874</v>
+        <v>1.019543278630306</v>
       </c>
       <c r="L19">
-        <v>1.039818088970382</v>
+        <v>1.014995919278404</v>
       </c>
       <c r="M19">
-        <v>1.050817656878687</v>
+        <v>1.020741842149124</v>
       </c>
       <c r="N19">
-        <v>1.033814566393089</v>
+        <v>1.013028342432265</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02588135474981</v>
+        <v>0.9823787653367592</v>
       </c>
       <c r="D20">
-        <v>1.029592411142457</v>
+        <v>1.004745287529814</v>
       </c>
       <c r="E20">
-        <v>1.036212042516255</v>
+        <v>0.9998440812280797</v>
       </c>
       <c r="F20">
-        <v>1.047198390218115</v>
+        <v>1.005459069754199</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031716865733896</v>
+        <v>1.038401391759566</v>
       </c>
       <c r="J20">
-        <v>1.032146374776054</v>
+        <v>1.010606272303692</v>
       </c>
       <c r="K20">
-        <v>1.032988490055258</v>
+        <v>1.01870520684032</v>
       </c>
       <c r="L20">
-        <v>1.039584842415443</v>
+        <v>1.013889672833696</v>
       </c>
       <c r="M20">
-        <v>1.050533269401582</v>
+        <v>1.019406602431407</v>
       </c>
       <c r="N20">
-        <v>1.033612141017081</v>
+        <v>1.012041449128523</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024821797242667</v>
+        <v>0.9768423089992421</v>
       </c>
       <c r="D21">
-        <v>1.028845085660133</v>
+        <v>1.00096241193707</v>
       </c>
       <c r="E21">
-        <v>1.035243896004292</v>
+        <v>0.9951544404810772</v>
       </c>
       <c r="F21">
-        <v>1.046066202685609</v>
+        <v>1.000007286747919</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031549829256366</v>
+        <v>1.037140937884012</v>
       </c>
       <c r="J21">
-        <v>1.031489108887216</v>
+        <v>1.007341197656862</v>
       </c>
       <c r="K21">
-        <v>1.032452056644889</v>
+        <v>1.015925574040565</v>
       </c>
       <c r="L21">
-        <v>1.038826850322244</v>
+        <v>1.010228198673239</v>
       </c>
       <c r="M21">
-        <v>1.049609276860373</v>
+        <v>1.01498852108116</v>
       </c>
       <c r="N21">
-        <v>1.03295394173529</v>
+        <v>1.008771737701186</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024156186029383</v>
+        <v>0.9732799266653585</v>
       </c>
       <c r="D22">
-        <v>1.028375487267586</v>
+        <v>0.998533515421734</v>
       </c>
       <c r="E22">
-        <v>1.034636119764337</v>
+        <v>0.992145367904818</v>
       </c>
       <c r="F22">
-        <v>1.04535545469847</v>
+        <v>0.9965079410684697</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03144351436174</v>
+        <v>1.036320102295507</v>
       </c>
       <c r="J22">
-        <v>1.031075792024981</v>
+        <v>1.005239397961515</v>
       </c>
       <c r="K22">
-        <v>1.032114315869521</v>
+        <v>1.01413407974389</v>
       </c>
       <c r="L22">
-        <v>1.038350517423145</v>
+        <v>1.007874049166705</v>
       </c>
       <c r="M22">
-        <v>1.049028775552125</v>
+        <v>1.01214889520129</v>
       </c>
       <c r="N22">
-        <v>1.032540037915703</v>
+        <v>1.006666953209191</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024508984348575</v>
+        <v>0.9751763874040739</v>
       </c>
       <c r="D23">
-        <v>1.028624403732757</v>
+        <v>0.9998260396188329</v>
       </c>
       <c r="E23">
-        <v>1.034958224299585</v>
+        <v>0.9937464540213052</v>
       </c>
       <c r="F23">
-        <v>1.04573213065496</v>
+        <v>0.9983700199743116</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031499996234349</v>
+        <v>1.036757984877217</v>
       </c>
       <c r="J23">
-        <v>1.031294905217198</v>
+        <v>1.006358376088732</v>
       </c>
       <c r="K23">
-        <v>1.032293402275992</v>
+        <v>1.015088052066245</v>
       </c>
       <c r="L23">
-        <v>1.038603006763181</v>
+        <v>1.009127110819554</v>
       </c>
       <c r="M23">
-        <v>1.049336467288901</v>
+        <v>1.013660274418902</v>
       </c>
       <c r="N23">
-        <v>1.032759462273785</v>
+        <v>1.007787520413697</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025899128045785</v>
+        <v>0.9824702611407814</v>
       </c>
       <c r="D24">
-        <v>1.029604944705578</v>
+        <v>1.004807882568859</v>
       </c>
       <c r="E24">
-        <v>1.036228289390102</v>
+        <v>0.9999217178563508</v>
       </c>
       <c r="F24">
-        <v>1.047217390101504</v>
+        <v>1.00554930436746</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031719644175193</v>
+        <v>1.038422055171352</v>
       </c>
       <c r="J24">
-        <v>1.032157392708643</v>
+        <v>1.010660212249568</v>
       </c>
       <c r="K24">
-        <v>1.032997475496952</v>
+        <v>1.018751089215167</v>
       </c>
       <c r="L24">
-        <v>1.039597554360985</v>
+        <v>1.013950208356328</v>
       </c>
       <c r="M24">
-        <v>1.05054876779392</v>
+        <v>1.019479663829857</v>
       </c>
       <c r="N24">
-        <v>1.033623174596397</v>
+        <v>1.012095465675309</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027514783622716</v>
+        <v>0.9906045371076149</v>
       </c>
       <c r="D25">
-        <v>1.030743956123078</v>
+        <v>1.010382444597896</v>
       </c>
       <c r="E25">
-        <v>1.037706160499744</v>
+        <v>1.006841778060549</v>
       </c>
       <c r="F25">
-        <v>1.048945712348041</v>
+        <v>1.013589913542589</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031968888408209</v>
+        <v>1.04023502732449</v>
       </c>
       <c r="J25">
-        <v>1.033157934920375</v>
+        <v>1.015452286596422</v>
       </c>
       <c r="K25">
-        <v>1.033812460356403</v>
+        <v>1.022821696469842</v>
       </c>
       <c r="L25">
-        <v>1.040752711287918</v>
+        <v>1.019334804621959</v>
       </c>
       <c r="M25">
-        <v>1.051957493512593</v>
+        <v>1.025980864020424</v>
       </c>
       <c r="N25">
-        <v>1.034625137692833</v>
+        <v>1.016894345317394</v>
       </c>
     </row>
   </sheetData>
